--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -83,33 +83,33 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6898503480772790929" xfId="1" hidden="0"/>
-    <cellStyle name="6435833071011908762" xfId="2" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="2216920358051257713" xfId="1"/>
+    <cellStyle hidden="0" name="323193027110439148" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -37555,6 +37555,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="2216920358051257713" xfId="1"/>
-    <cellStyle hidden="0" name="323193027110439148" xfId="2"/>
+    <cellStyle hidden="0" name="-239325141971830916" xfId="1"/>
+    <cellStyle hidden="0" name="-7857224303987544943" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="-239325141971830916" xfId="1"/>
-    <cellStyle hidden="0" name="-7857224303987544943" xfId="2"/>
+    <cellStyle hidden="0" name="6496240655099148549" xfId="1"/>
+    <cellStyle hidden="0" name="1153539208886262972" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="6496240655099148549" xfId="1"/>
-    <cellStyle hidden="0" name="1153539208886262972" xfId="2"/>
+    <cellStyle hidden="0" name="1569344854839357156" xfId="1"/>
+    <cellStyle hidden="0" name="-4752048724586960659" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="1569344854839357156" xfId="1"/>
-    <cellStyle hidden="0" name="-4752048724586960659" xfId="2"/>
+    <cellStyle hidden="0" name="6582644956526789746" xfId="1"/>
+    <cellStyle hidden="0" name="4674827761952396851" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="6582644956526789746" xfId="1"/>
-    <cellStyle hidden="0" name="4674827761952396851" xfId="2"/>
+    <cellStyle hidden="0" name="7174450267964616321" xfId="1"/>
+    <cellStyle hidden="0" name="-4560894966670602496" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="7174450267964616321" xfId="1"/>
-    <cellStyle hidden="0" name="-4560894966670602496" xfId="2"/>
+    <cellStyle hidden="0" name="1292069752398869160" xfId="1"/>
+    <cellStyle hidden="0" name="-4214303134842987403" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>

--- a/app/AI Internal-Outputs/output_0.xlsx
+++ b/app/AI Internal-Outputs/output_0.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="1292069752398869160" xfId="1"/>
-    <cellStyle hidden="0" name="-4214303134842987403" xfId="2"/>
+    <cellStyle hidden="0" name="3271293724601410561" xfId="1"/>
+    <cellStyle hidden="0" name="155598367253217220" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
